--- a/BRE03D.xlsx
+++ b/BRE03D.xlsx
@@ -172,6 +172,18 @@
     <t>10</t>
   </si>
   <si>
+    <t>20140796</t>
+  </si>
+  <si>
+    <t>SARIWANGI MATCHA 5'S</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
     <t>20137476</t>
   </si>
   <si>
@@ -238,9 +250,6 @@
     <t>MADURASA ORGNL 150G</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>20133182</t>
   </si>
   <si>
@@ -349,31 +358,22 @@
     <t>LARISST CRISPY CHO50</t>
   </si>
   <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
     <t>20137762</t>
   </si>
   <si>
     <t>LARISST CRISPY STR50</t>
   </si>
   <si>
-    <t>20133328</t>
-  </si>
-  <si>
-    <t>KELLOG HNEY CRNCH 50</t>
-  </si>
-  <si>
     <t>20132345</t>
   </si>
   <si>
     <t>KELLOG FROT LOOPS 55</t>
   </si>
   <si>
-    <t>20134582</t>
-  </si>
-  <si>
-    <t>KELLOG GRNLA D/CHO40</t>
+    <t>20071767</t>
+  </si>
+  <si>
+    <t>NESTLE HONY STAR 70G</t>
   </si>
   <si>
     <t>20134846</t>
@@ -382,10 +382,10 @@
     <t>KELLOG GRNL BRRIES40</t>
   </si>
   <si>
-    <t>20071767</t>
-  </si>
-  <si>
-    <t>NESTLE HONY STAR 70G</t>
+    <t>20136091</t>
+  </si>
+  <si>
+    <t>NESTLE TRIX PCK 60G</t>
   </si>
   <si>
     <t>20053733</t>
@@ -424,6 +424,18 @@
     <t>QUAKER REF MERAH 200</t>
   </si>
   <si>
+    <t>20139842</t>
+  </si>
+  <si>
+    <t>POCI TEH TRK AREN 5S</t>
+  </si>
+  <si>
+    <t>20140428</t>
+  </si>
+  <si>
+    <t>POCI SK.MTCHA LAT 5S</t>
+  </si>
+  <si>
     <t>20010085</t>
   </si>
   <si>
@@ -466,10 +478,10 @@
     <t>G/D COKIE N CRM 5'S</t>
   </si>
   <si>
-    <t>20124882</t>
-  </si>
-  <si>
-    <t>GD DUET MOCA'CRML 5S</t>
+    <t>20097469</t>
+  </si>
+  <si>
+    <t>LUWAK WHT TRK MLK 6S</t>
   </si>
   <si>
     <t>20036590</t>
@@ -490,12 +502,6 @@
     <t>LUWAK WHT 3RASA10X20</t>
   </si>
   <si>
-    <t>20097469</t>
-  </si>
-  <si>
-    <t>LUWAK WHT TRK MLK 6S</t>
-  </si>
-  <si>
     <t>10000638</t>
   </si>
   <si>
@@ -601,28 +607,22 @@
     <t>BENG2 CHOCO DRNK 10S</t>
   </si>
   <si>
+    <t>20066440</t>
+  </si>
+  <si>
+    <t>NESTLE KOKO KRNCH 70</t>
+  </si>
+  <si>
+    <t>20134578</t>
+  </si>
+  <si>
+    <t>KELLOGGS COCO FILL60</t>
+  </si>
+  <si>
     <t>10030665</t>
   </si>
   <si>
     <t>SIMBA CEREAL CKT 80G</t>
-  </si>
-  <si>
-    <t>20066440</t>
-  </si>
-  <si>
-    <t>NESTLE KOKO KRNCH 70</t>
-  </si>
-  <si>
-    <t>20134578</t>
-  </si>
-  <si>
-    <t>KELLOGGS COCO FILL60</t>
-  </si>
-  <si>
-    <t>20136091</t>
-  </si>
-  <si>
-    <t>NESTLE TRIX PCK 60G</t>
   </si>
   <si>
     <t>10025301</t>
@@ -1692,21 +1692,21 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1735,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1755,18 +1755,18 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1775,18 +1775,18 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1835,18 +1835,18 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1855,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>81</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,21 +2032,21 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2075,18 +2075,18 @@
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>23</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2115,18 +2115,18 @@
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2135,18 +2135,18 @@
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2155,7 +2155,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>23</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>23</v>
@@ -2183,22 +2183,22 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,10 +2215,10 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2235,10 +2235,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>23</v>
@@ -2275,7 +2275,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
@@ -2295,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>23</v>
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,10 +2535,10 @@
         <v>26</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
@@ -2578,7 +2578,7 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>49</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,13 +2632,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -2675,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,13 +2692,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>49</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>19</v>
@@ -2735,7 +2735,7 @@
         <v>49</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>19</v>
@@ -2755,10 +2755,10 @@
         <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
         <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>49</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,10 +2815,10 @@
         <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>49</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
@@ -2852,21 +2852,21 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -2875,10 +2875,10 @@
         <v>52</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,10 +2895,10 @@
         <v>52</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,10 +2915,10 @@
         <v>52</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>52</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,10 +2955,10 @@
         <v>52</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,13 +2972,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
@@ -3012,10 +3012,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
@@ -3032,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -3072,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
@@ -3092,13 +3092,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>11</v>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>18</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>22</v>
@@ -3232,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>26</v>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -3272,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,13 +3312,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -3352,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>18</v>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>22</v>
@@ -3392,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>26</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>30</v>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
@@ -3472,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
@@ -3492,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -3512,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>18</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>22</v>
@@ -3552,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>26</v>
@@ -3572,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>30</v>
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -3652,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -3672,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>18</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>22</v>
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>26</v>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>4</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>11</v>
@@ -3792,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>18</v>
@@ -3832,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>22</v>
@@ -3852,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>4</v>
@@ -3872,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
@@ -3892,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>11</v>
@@ -3912,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>14</v>
@@ -3932,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>18</v>
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>22</v>
@@ -3972,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>26</v>
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -4012,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>49</v>

--- a/BRE03D.xlsx
+++ b/BRE03D.xlsx
@@ -181,181 +181,181 @@
     <t>11</t>
   </si>
   <si>
+    <t>20137476</t>
+  </si>
+  <si>
+    <t>SOYJOY KURMA NSTR 30</t>
+  </si>
+  <si>
+    <t>20063155</t>
+  </si>
+  <si>
+    <t>SOYJOY CKLT ALMND 30</t>
+  </si>
+  <si>
+    <t>20128818</t>
+  </si>
+  <si>
+    <t>SOYJOY MOCHACHOC 30G</t>
+  </si>
+  <si>
+    <t>20097488</t>
+  </si>
+  <si>
+    <t>MILO SRL BAR CKL23.5</t>
+  </si>
+  <si>
+    <t>20040341</t>
+  </si>
+  <si>
+    <t>FITBAR FRTS RSBRY 20</t>
+  </si>
+  <si>
+    <t>20051344</t>
+  </si>
+  <si>
+    <t>FITBAR CHOCOLATE 20G</t>
+  </si>
+  <si>
+    <t>20101062</t>
+  </si>
+  <si>
+    <t>FITBAR TIRAMISU 20G</t>
+  </si>
+  <si>
+    <t>20117884</t>
+  </si>
+  <si>
+    <t>MADU TJ MURNI 500G</t>
+  </si>
+  <si>
+    <t>20055265</t>
+  </si>
+  <si>
+    <t>T/J MADU TJ MRNI 150</t>
+  </si>
+  <si>
+    <t>20069858</t>
+  </si>
+  <si>
+    <t>T/J MADU KRMA TJ 150</t>
+  </si>
+  <si>
+    <t>20073984</t>
+  </si>
+  <si>
+    <t>MADURASA ORGNL 150G</t>
+  </si>
+  <si>
+    <t>20133182</t>
+  </si>
+  <si>
+    <t>URAY NTURAL HONEY150</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20102786</t>
+  </si>
+  <si>
+    <t>MDRASA MADU OR12X20G</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20139758</t>
+  </si>
+  <si>
+    <t>MDRASA JH.MRH LMN160</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20140007</t>
+  </si>
+  <si>
+    <t>NSNTARA MD RANDU 100</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20139996</t>
+  </si>
+  <si>
+    <t>NUSANTARA MD RJ 100</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20139997</t>
+  </si>
+  <si>
+    <t>FLORA MADU 250G</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10011021</t>
+  </si>
+  <si>
+    <t>SIMBA CRL C/C COK 34</t>
+  </si>
+  <si>
+    <t>10011020</t>
+  </si>
+  <si>
+    <t>SIMBA CRL C/C PTH 34</t>
+  </si>
+  <si>
+    <t>10025006</t>
+  </si>
+  <si>
+    <t>NESTLE KOKO.COMBO 30</t>
+  </si>
+  <si>
+    <t>20032723</t>
+  </si>
+  <si>
+    <t>MILO CEREAL COKLT 30</t>
+  </si>
+  <si>
+    <t>20113150</t>
+  </si>
+  <si>
+    <t>SIMBA CRL CC STRW 34</t>
+  </si>
+  <si>
+    <t>20111959</t>
+  </si>
+  <si>
+    <t>KOKO KRNCH DB.CHO 30</t>
+  </si>
+  <si>
+    <t>20046903</t>
+  </si>
+  <si>
+    <t>NESTLE HONY STAR 30G</t>
+  </si>
+  <si>
+    <t>20136090</t>
+  </si>
+  <si>
+    <t>NESTLE TRIX CUP 30G</t>
+  </si>
+  <si>
+    <t>20137761</t>
+  </si>
+  <si>
+    <t>LARISST CRISPY CHO50</t>
+  </si>
+  <si>
     <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20137476</t>
-  </si>
-  <si>
-    <t>SOYJOY KURMA NSTR 30</t>
-  </si>
-  <si>
-    <t>20063155</t>
-  </si>
-  <si>
-    <t>SOYJOY CKLT ALMND 30</t>
-  </si>
-  <si>
-    <t>20128818</t>
-  </si>
-  <si>
-    <t>SOYJOY MOCHACHOC 30G</t>
-  </si>
-  <si>
-    <t>20097488</t>
-  </si>
-  <si>
-    <t>MILO SRL BAR CKL23.5</t>
-  </si>
-  <si>
-    <t>20040341</t>
-  </si>
-  <si>
-    <t>FITBAR FRTS RSBRY 20</t>
-  </si>
-  <si>
-    <t>20051344</t>
-  </si>
-  <si>
-    <t>FITBAR CHOCOLATE 20G</t>
-  </si>
-  <si>
-    <t>20101062</t>
-  </si>
-  <si>
-    <t>FITBAR TIRAMISU 20G</t>
-  </si>
-  <si>
-    <t>20117884</t>
-  </si>
-  <si>
-    <t>MADU TJ MURNI 500G</t>
-  </si>
-  <si>
-    <t>20055265</t>
-  </si>
-  <si>
-    <t>T/J MADU TJ MRNI 150</t>
-  </si>
-  <si>
-    <t>20069858</t>
-  </si>
-  <si>
-    <t>T/J MADU KRMA TJ 150</t>
-  </si>
-  <si>
-    <t>20073984</t>
-  </si>
-  <si>
-    <t>MADURASA ORGNL 150G</t>
-  </si>
-  <si>
-    <t>20133182</t>
-  </si>
-  <si>
-    <t>URAY NTURAL HONEY150</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20102786</t>
-  </si>
-  <si>
-    <t>MDRASA MADU OR12X20G</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20139758</t>
-  </si>
-  <si>
-    <t>MDRASA JH.MRH LMN160</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20140007</t>
-  </si>
-  <si>
-    <t>NSNTARA MD RANDU 100</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20139996</t>
-  </si>
-  <si>
-    <t>NUSANTARA MD RJ 100</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20139997</t>
-  </si>
-  <si>
-    <t>FLORA MADU 250G</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10011021</t>
-  </si>
-  <si>
-    <t>SIMBA CRL C/C COK 34</t>
-  </si>
-  <si>
-    <t>10011020</t>
-  </si>
-  <si>
-    <t>SIMBA CRL C/C PTH 34</t>
-  </si>
-  <si>
-    <t>10025006</t>
-  </si>
-  <si>
-    <t>NESTLE KOKO.COMBO 30</t>
-  </si>
-  <si>
-    <t>20032723</t>
-  </si>
-  <si>
-    <t>MILO CEREAL COKLT 30</t>
-  </si>
-  <si>
-    <t>20113150</t>
-  </si>
-  <si>
-    <t>SIMBA CRL CC STRW 34</t>
-  </si>
-  <si>
-    <t>20111959</t>
-  </si>
-  <si>
-    <t>KOKO KRNCH DB.CHO 30</t>
-  </si>
-  <si>
-    <t>20046903</t>
-  </si>
-  <si>
-    <t>NESTLE HONY STAR 30G</t>
-  </si>
-  <si>
-    <t>20136090</t>
-  </si>
-  <si>
-    <t>NESTLE TRIX CUP 30G</t>
-  </si>
-  <si>
-    <t>20137761</t>
-  </si>
-  <si>
-    <t>LARISST CRISPY CHO50</t>
   </si>
   <si>
     <t>20137762</t>
@@ -1698,15 +1698,15 @@
         <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1995,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>19</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2035,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>23</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>11</v>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>18</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>22</v>
@@ -3232,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>26</v>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
@@ -3292,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3332,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -3352,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>18</v>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>22</v>
@@ -3392,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>26</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>30</v>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
@@ -3472,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
@@ -3492,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -3512,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>18</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>22</v>
@@ -3552,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>26</v>
@@ -3572,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>30</v>
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>11</v>
@@ -3652,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -3672,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>18</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>22</v>
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>26</v>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>4</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>11</v>
@@ -3792,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>18</v>
@@ -3832,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>22</v>
@@ -3852,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>4</v>
@@ -3872,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
@@ -3892,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>11</v>
@@ -3912,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>14</v>
@@ -3932,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>18</v>
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>22</v>
@@ -3972,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>26</v>
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -4012,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>49</v>

--- a/BRE03D.xlsx
+++ b/BRE03D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="298">
   <si>
     <t/>
   </si>
@@ -172,13 +172,22 @@
     <t>10</t>
   </si>
   <si>
+    <t>20141067</t>
+  </si>
+  <si>
+    <t>2TANG TEH MLTI 25'S</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>20140796</t>
   </si>
   <si>
     <t>SARIWANGI MATCHA 5'S</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>20137476</t>
@@ -251,9 +260,6 @@
   </si>
   <si>
     <t>URAY NTURAL HONEY150</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>20102786</t>
@@ -1291,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1698,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,21 +1718,21 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1735,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1743,10 +1749,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1755,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1763,10 +1769,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1775,18 +1781,18 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1795,18 +1801,18 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1815,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1823,10 +1829,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1835,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -1843,10 +1849,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1855,18 +1861,18 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1875,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1883,10 +1889,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1895,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1903,10 +1909,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1915,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1923,10 +1929,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1935,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,18 +1961,18 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1975,18 +1981,18 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1995,18 +2001,18 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -2015,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
@@ -2023,10 +2029,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2035,30 +2041,30 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>19</v>
@@ -2095,10 +2101,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>23</v>
@@ -2135,10 +2141,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>23</v>
@@ -2195,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>23</v>
@@ -2212,21 +2218,21 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2235,10 +2241,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,10 +2261,10 @@
         <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
@@ -2295,7 +2301,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>23</v>
@@ -2315,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>23</v>
@@ -2332,13 +2338,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,10 +2361,10 @@
         <v>22</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
@@ -2395,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>23</v>
@@ -2415,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
@@ -2435,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>23</v>
@@ -2452,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>23</v>
@@ -2475,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>23</v>
@@ -2495,10 +2501,10 @@
         <v>26</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,10 +2521,10 @@
         <v>26</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,10 +2541,10 @@
         <v>26</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,10 +2561,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,10 +2581,10 @@
         <v>26</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,10 +2601,10 @@
         <v>26</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,7 +2621,7 @@
         <v>26</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>19</v>
@@ -2635,7 +2641,7 @@
         <v>26</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>19</v>
@@ -2652,13 +2658,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,7 +2681,7 @@
         <v>30</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -2695,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2712,13 +2718,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,7 +2741,7 @@
         <v>49</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>19</v>
@@ -2755,7 +2761,7 @@
         <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>19</v>
@@ -2775,10 +2781,10 @@
         <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,10 +2801,10 @@
         <v>49</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,10 +2821,10 @@
         <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,10 +2841,10 @@
         <v>49</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,7 +2861,7 @@
         <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>15</v>
@@ -2872,21 +2878,21 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2895,10 +2901,10 @@
         <v>52</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,10 +2921,10 @@
         <v>52</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,10 +2941,10 @@
         <v>52</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,10 +2961,10 @@
         <v>52</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,10 +2981,10 @@
         <v>52</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,13 +2998,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,7 +3021,7 @@
         <v>55</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
@@ -3035,7 +3041,7 @@
         <v>55</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
@@ -3055,7 +3061,7 @@
         <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -3075,7 +3081,7 @@
         <v>55</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
@@ -3095,10 +3101,10 @@
         <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,13 +3118,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
@@ -3152,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
@@ -3172,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
@@ -3192,10 +3198,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
@@ -3212,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
@@ -3232,10 +3238,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
@@ -3252,10 +3258,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>23</v>
@@ -3272,13 +3278,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,13 +3318,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,13 +3358,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,10 +3378,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3392,13 +3398,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>15</v>
@@ -3432,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>15</v>
@@ -3452,13 +3458,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3492,13 +3498,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,10 +3518,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>23</v>
@@ -3532,10 +3538,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>23</v>
@@ -3552,13 +3558,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3572,13 +3578,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3592,10 +3598,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>23</v>
@@ -3612,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>23</v>
@@ -3632,13 +3638,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,13 +3658,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,13 +3678,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,13 +3698,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>15</v>
@@ -3732,10 +3738,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>15</v>
@@ -3752,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>15</v>
@@ -3772,13 +3778,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3792,13 +3798,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,10 +3818,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>15</v>
@@ -3832,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>15</v>
@@ -3852,13 +3858,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,13 +3878,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>23</v>
@@ -3912,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>23</v>
@@ -3932,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>23</v>
@@ -3952,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
@@ -3972,13 +3978,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3992,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>15</v>
@@ -4012,12 +4018,32 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>5</v>
       </c>
     </row>
